--- a/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
+++ b/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\fuels\PoFDCtAE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\fuels\PoFDCtAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8719F1CD-7F12-4E84-8193-D1202AC966B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E8489-E0D5-43A7-A8B9-4B3BD45DB0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -790,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1594,7 +1594,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,8 +1747,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="31">
-        <f>'Data from BFPIaE'!D5/'Data from BFPIaE'!B5</f>
-        <v>0.13753987947536334</v>
+        <v>0</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
@@ -1819,8 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="31">
-        <f>'Data from BFPIaE'!D6/'Data from BFPIaE'!B6</f>
-        <v>0.12558753638387204</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -2176,8 +2174,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="31">
-        <f>'Data from BFPIaE'!D11/'Data from BFPIaE'!B11</f>
-        <v>0.70046828016369056</v>
+        <v>0</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -2248,8 +2245,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="12">
-        <f>'Data from BFPIaE'!D12/SUM('Data from BFPIaE'!D12:E12)</f>
-        <v>7.5004052116109651E-2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="8">
         <v>0</v>
@@ -2274,7 +2270,7 @@
       </c>
       <c r="R10" s="13">
         <f>1-J10</f>
-        <v>0.92499594788389039</v>
+        <v>1</v>
       </c>
       <c r="S10" s="8">
         <v>0</v>
@@ -2321,8 +2317,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="12">
-        <f>'Data from BFPIaE'!D13/SUM('Data from BFPIaE'!D13:E13)</f>
-        <v>0.26691051822957201</v>
+        <v>0</v>
       </c>
       <c r="L11" s="8">
         <v>0</v>
@@ -2344,7 +2339,7 @@
       </c>
       <c r="R11" s="13">
         <f>1-K11</f>
-        <v>0.73308948177042799</v>
+        <v>1</v>
       </c>
       <c r="S11" s="8">
         <v>0</v>
@@ -2394,8 +2389,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="31">
-        <f>'Data from BFPIaE'!D14/'Data from BFPIaE'!B14</f>
-        <v>8.7213883800914521E-2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="8">
         <v>0</v>
@@ -2466,8 +2460,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="31">
-        <f>'Data from BFPIaE'!D15/'Data from BFPIaE'!B15</f>
-        <v>5.8642381491327347E-2</v>
+        <v>0</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
@@ -2538,8 +2531,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="12">
-        <f>'Data from BFPIaE'!D16/SUM('Data from BFPIaE'!D16:E16)</f>
-        <v>0.10155994008332163</v>
+        <v>0</v>
       </c>
       <c r="O14" s="11">
         <v>0</v>
@@ -2551,8 +2543,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="13">
-        <f>1-N14</f>
-        <v>0.89844005991667841</v>
+        <v>0</v>
       </c>
       <c r="S14" s="8">
         <v>0</v>
@@ -2825,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="8">
         <v>0</v>
@@ -2893,12 +2884,10 @@
         <v>0</v>
       </c>
       <c r="R19" s="13">
-        <f>1-S19</f>
-        <v>0.50085828893652218</v>
+        <v>0</v>
       </c>
       <c r="S19" s="12">
-        <f>'Data from BFPIaE'!D21/SUM('Data from BFPIaE'!D21:E21)</f>
-        <v>0.49914171106347782</v>
+        <v>0</v>
       </c>
       <c r="T19" s="8">
         <v>0</v>
@@ -2963,15 +2952,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="13">
-        <f>1-T20</f>
-        <v>0.56213174784871833</v>
+        <v>0</v>
       </c>
       <c r="S20" s="8">
         <v>0</v>
       </c>
       <c r="T20" s="12">
-        <f>'Data from BFPIaE'!D22/SUM('Data from BFPIaE'!D22:E22)</f>
-        <v>0.43786825215128167</v>
+        <v>0</v>
       </c>
       <c r="U20" s="8">
         <v>0</v>

--- a/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
+++ b/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\fuels\PoFDCtAE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-us\InputData\fuels\PoFDCtAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E8489-E0D5-43A7-A8B9-4B3BD45DB0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A75DB-5DCF-48DD-815D-5DA8E9B27952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15345" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -790,19 +790,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="87.5703125" customWidth="1"/>
+    <col min="2" max="2" width="87.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -810,223 +810,223 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="33"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>53</v>
       </c>
@@ -1038,77 +1038,77 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>62</v>
       </c>
@@ -1130,24 +1130,24 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="100.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.1796875" customWidth="1"/>
+    <col min="2" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="100.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>70</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>71</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -1293,7 +1293,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1304,28 +1304,28 @@
       <c r="F10" s="23"/>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="24">
-        <v>123408653368000</v>
+        <v>166043036334000</v>
       </c>
       <c r="C11" s="24">
-        <v>3835846580378.2954</v>
+        <v>5522103312930.1787</v>
       </c>
       <c r="D11" s="24">
-        <v>86443847182000</v>
+        <v>124444981024000</v>
       </c>
       <c r="E11" s="22">
-        <v>40800652766378.289</v>
+        <v>47120158622930.172</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
         <v>40</v>
       </c>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>41</v>
       </c>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>44</v>
       </c>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="F18" s="23"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>49</v>
       </c>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
         <v>50</v>
       </c>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>52</v>
       </c>
@@ -1590,20 +1590,20 @@
   </sheetPr>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="22" width="16.5703125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" customWidth="1"/>
+    <col min="2" max="22" width="16.54296875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1747,7 +1747,8 @@
         <v>0</v>
       </c>
       <c r="C3" s="31">
-        <v>0</v>
+        <f>'Data from BFPIaE'!D5/'Data from BFPIaE'!B5</f>
+        <v>0.13753987947536334</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
@@ -1807,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1818,7 +1819,8 @@
         <v>0</v>
       </c>
       <c r="D4" s="31">
-        <v>0</v>
+        <f>'Data from BFPIaE'!D6/'Data from BFPIaE'!B6</f>
+        <v>0.12558753638387204</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -1875,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -2080,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -2148,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -2174,7 +2176,8 @@
         <v>0</v>
       </c>
       <c r="I9" s="31">
-        <v>0</v>
+        <f>'Data from BFPIaE'!D11/'Data from BFPIaE'!B11</f>
+        <v>0.74947425541939383</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -2216,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -2245,7 +2248,8 @@
         <v>0</v>
       </c>
       <c r="J10" s="12">
-        <v>0</v>
+        <f>'Data from BFPIaE'!D12/SUM('Data from BFPIaE'!D12:E12)</f>
+        <v>7.5004052116109651E-2</v>
       </c>
       <c r="K10" s="8">
         <v>0</v>
@@ -2270,7 +2274,7 @@
       </c>
       <c r="R10" s="13">
         <f>1-J10</f>
-        <v>1</v>
+        <v>0.92499594788389039</v>
       </c>
       <c r="S10" s="8">
         <v>0</v>
@@ -2285,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -2317,7 +2321,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="12">
-        <v>0</v>
+        <f>'Data from BFPIaE'!D13/SUM('Data from BFPIaE'!D13:E13)</f>
+        <v>0.26691051822957201</v>
       </c>
       <c r="L11" s="8">
         <v>0</v>
@@ -2339,7 +2344,7 @@
       </c>
       <c r="R11" s="13">
         <f>1-K11</f>
-        <v>1</v>
+        <v>0.73308948177042799</v>
       </c>
       <c r="S11" s="8">
         <v>0</v>
@@ -2354,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -2389,7 +2394,8 @@
         <v>0</v>
       </c>
       <c r="L12" s="31">
-        <v>0</v>
+        <f>'Data from BFPIaE'!D14/'Data from BFPIaE'!B14</f>
+        <v>8.7213883800914521E-2</v>
       </c>
       <c r="M12" s="8">
         <v>0</v>
@@ -2422,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -2460,7 +2466,8 @@
         <v>0</v>
       </c>
       <c r="M13" s="31">
-        <v>0</v>
+        <f>'Data from BFPIaE'!D15/'Data from BFPIaE'!B15</f>
+        <v>5.8642381491327347E-2</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
@@ -2490,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -2531,7 +2538,8 @@
         <v>0</v>
       </c>
       <c r="N14" s="12">
-        <v>0</v>
+        <f>'Data from BFPIaE'!D16/SUM('Data from BFPIaE'!D16:E16)</f>
+        <v>0.10155994008332163</v>
       </c>
       <c r="O14" s="11">
         <v>0</v>
@@ -2543,7 +2551,8 @@
         <v>0</v>
       </c>
       <c r="R14" s="13">
-        <v>0</v>
+        <f>1-N14</f>
+        <v>0.89844005991667841</v>
       </c>
       <c r="S14" s="8">
         <v>0</v>
@@ -2558,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
@@ -2626,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -2694,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
@@ -2763,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
@@ -2816,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="8">
         <v>0</v>
@@ -2831,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2884,10 +2893,12 @@
         <v>0</v>
       </c>
       <c r="R19" s="13">
-        <v>0</v>
+        <f>1-S19</f>
+        <v>0.50085828893652218</v>
       </c>
       <c r="S19" s="12">
-        <v>0</v>
+        <f>'Data from BFPIaE'!D21/SUM('Data from BFPIaE'!D21:E21)</f>
+        <v>0.49914171106347782</v>
       </c>
       <c r="T19" s="8">
         <v>0</v>
@@ -2899,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>50</v>
       </c>
@@ -2952,13 +2963,15 @@
         <v>0</v>
       </c>
       <c r="R20" s="13">
-        <v>0</v>
+        <f>1-T20</f>
+        <v>0.56213174784871833</v>
       </c>
       <c r="S20" s="8">
         <v>0</v>
       </c>
       <c r="T20" s="12">
-        <v>0</v>
+        <f>'Data from BFPIaE'!D22/SUM('Data from BFPIaE'!D22:E22)</f>
+        <v>0.43786825215128167</v>
       </c>
       <c r="U20" s="8">
         <v>0</v>
@@ -2967,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
@@ -3036,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
